--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>624534.7015143692</v>
+        <v>622096.3115559528</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>212.822382462069</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>83.09405498755456</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>254.5167172826953</v>
       </c>
       <c r="Y2" t="n">
-        <v>222.8820808229063</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>133.2205257453327</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>107.8521687947581</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -874,13 +874,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>146.6761581385889</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>315.9968882787545</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>146.9116028132302</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>1.64230657388322</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>283.2268612046878</v>
+        <v>223.0977753814043</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1348,10 +1348,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>98.6038000557438</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>139.3948594558972</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>304.3915154833921</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1424,7 +1424,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>200.6173698503566</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>81.37259901119255</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>123.9450143964571</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417137</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>129.107892822387</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S16" t="n">
-        <v>36.4306205949047</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456848</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229252</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>68.17501931583396</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.405450327292</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>108.9065924712566</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699831</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856724</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.405450327287</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>102.1557845699769</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>112.0357928422982</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>113.5413580759679</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>163.3542162903876</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>96.99837838564352</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1734.107676315058</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C2" t="n">
-        <v>1734.107676315058</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D2" t="n">
-        <v>1375.841977708307</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>990.0537251100632</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F2" t="n">
-        <v>579.0678203204556</v>
+        <v>77.54416254678284</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4340,16 +4340,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4364,16 +4364,16 @@
         <v>3072.075344883006</v>
       </c>
       <c r="V2" t="n">
-        <v>3072.075344883006</v>
+        <v>2988.141956006688</v>
       </c>
       <c r="W2" t="n">
-        <v>2719.306689612892</v>
+        <v>2635.373300736574</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.840931351812</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y2" t="n">
-        <v>2120.70751637918</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="3">
@@ -4398,22 +4398,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,10 +4425,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>588.395308462682</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>588.395308462682</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D4" t="n">
-        <v>588.395308462682</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E4" t="n">
-        <v>440.4822148802889</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>440.4822148802889</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>272.7793782550078</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1326.59460854119</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W4" t="n">
-        <v>1037.177438504229</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X4" t="n">
-        <v>809.1878876062121</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="Y4" t="n">
-        <v>588.395308462682</v>
+        <v>370.0144869816385</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1285.591601078694</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C5" t="n">
-        <v>1285.591601078694</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>927.3259024719439</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>927.3259024719439</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993393</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649822</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2435.796531379708</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2062.330773118628</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>1672.191441142816</v>
+        <v>1958.764357757271</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,13 +4647,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4662,34 +4662,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>627.8744564335971</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C7" t="n">
-        <v>627.8744564335971</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1689.068532448819</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1689.068532448819</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1399.965665574462</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1145.281177368575</v>
+        <v>1133.249828838841</v>
       </c>
       <c r="W7" t="n">
-        <v>855.8640073316144</v>
+        <v>843.8326588018809</v>
       </c>
       <c r="X7" t="n">
-        <v>627.8744564335971</v>
+        <v>615.8431079038636</v>
       </c>
       <c r="Y7" t="n">
-        <v>627.8744564335971</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,43 +4811,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W8" t="n">
-        <v>2392.186779586323</v>
+        <v>2452.923229912873</v>
       </c>
       <c r="X8" t="n">
-        <v>2392.186779586323</v>
+        <v>2079.457471651794</v>
       </c>
       <c r="Y8" t="n">
-        <v>2392.186779586323</v>
+        <v>1689.318139675982</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4902,7 +4902,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
         <v>2564.909189125857</v>
@@ -4911,16 +4911,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>625.6709106036544</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
-        <v>625.6709106036544</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V10" t="n">
-        <v>1035.308926331912</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W10" t="n">
-        <v>1035.308926331912</v>
+        <v>739.4213478228399</v>
       </c>
       <c r="X10" t="n">
-        <v>807.3193754338942</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="Y10" t="n">
-        <v>807.3193754338942</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D11" t="n">
         <v>1589.996253358682</v>
@@ -5033,58 +5033,58 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128779</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018652</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750195</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G12" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060314</v>
       </c>
       <c r="J12" t="n">
-        <v>240.4596049779265</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K12" t="n">
-        <v>570.9683475412853</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L12" t="n">
-        <v>1061.700680385037</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M12" t="n">
-        <v>1653.719034637164</v>
+        <v>1117.915713151552</v>
       </c>
       <c r="N12" t="n">
-        <v>2275.814998036501</v>
+        <v>1740.011676550888</v>
       </c>
       <c r="O12" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P12" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.7074548523129</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>506.7712719244061</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D13" t="n">
-        <v>506.7712719244061</v>
+        <v>175.0061676818306</v>
       </c>
       <c r="E13" t="n">
-        <v>506.7712719244061</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="F13" t="n">
-        <v>359.8813244264957</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="G13" t="n">
-        <v>234.6843401876502</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="H13" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J13" t="n">
         <v>171.7937461156345</v>
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273916</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>417.9651836029396</v>
       </c>
       <c r="L15" t="n">
-        <v>542.9134462654475</v>
+        <v>913.2907898186987</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>913.2907898186987</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>726.955532171245</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C16" t="n">
-        <v>558.0193492433381</v>
+        <v>513.853600740073</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038347</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797751</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S16" t="n">
-        <v>2410.164476918741</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>2190.563011941682</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1901.48778528588</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V16" t="n">
-        <v>1646.803297079993</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W16" t="n">
-        <v>1357.386127043032</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y16" t="n">
-        <v>908.6039970014847</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,52 +5501,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876649</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597581</v>
+        <v>388.6197041282693</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597581</v>
+        <v>388.6197041282693</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597581</v>
+        <v>240.7066105458761</v>
       </c>
       <c r="F19" t="n">
-        <v>411.9631215597581</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G19" t="n">
-        <v>244.767022274638</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258102</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.4315576023</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396413</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359452</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614348</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179047</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D22" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="E22" t="n">
-        <v>484.811296842982</v>
+        <v>197.004324229773</v>
       </c>
       <c r="F22" t="n">
-        <v>484.811296842982</v>
+        <v>197.004324229773</v>
       </c>
       <c r="G22" t="n">
-        <v>317.615197557862</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.90336640006</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="23">
@@ -5984,31 +5984,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6215,61 +6215,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745237</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,22 +6443,22 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,16 +6482,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297667</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6640,31 +6640,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>430.7826650753331</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E34" t="n">
-        <v>430.7826650753331</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>430.7826650753331</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797186</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6938,19 +6938,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6145409888043</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782948</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038334</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2332.274843099484</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2332.274843099484</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2043.199616443682</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1788.515128237795</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1271.108407302817</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1050.315828159287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>576.8388927589092</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>407.9027098310023</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7372,10 +7372,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7491,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>415.5933575433587</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E43" t="n">
-        <v>415.5933575433587</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>415.5933575433587</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>198.0993431913845</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>244.6582034825803</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22702,25 +22702,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>46.61145443660462</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50.29152613729087</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>50.29152613728974</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>65.06136363537662</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>41.59703848070987</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
         <v>81.80457674440902</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>19.50758019582534</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922615</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856549</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>144.5956654067438</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>43.26526345294303</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>72.11969353038992</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>37.52737017531256</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228572</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345295439</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>45.44677382459305</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465731</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>53.48834544997067</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>67.48492792567669</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,19 +25546,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>62.35543909864958</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.52575990662532</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>949668.0444960331</v>
+        <v>949668.0444960323</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1014328.705917761</v>
+        <v>1014328.70591776</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1019912.240982729</v>
+        <v>1019912.24098273</v>
       </c>
     </row>
     <row r="7">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375475.6212503242</v>
+        <v>375475.621250324</v>
       </c>
       <c r="C2" t="n">
         <v>410520.8849321416</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321418</v>
       </c>
       <c r="E2" t="n">
-        <v>401339.8858190154</v>
+        <v>401339.8858190155</v>
       </c>
       <c r="F2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="G2" t="n">
+        <v>403573.2998450032</v>
+      </c>
+      <c r="H2" t="n">
         <v>403573.2998450031</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>403573.2998450031</v>
+      </c>
+      <c r="J2" t="n">
+        <v>403573.2998450031</v>
+      </c>
+      <c r="K2" t="n">
+        <v>403573.2998450028</v>
+      </c>
+      <c r="L2" t="n">
+        <v>403573.299845003</v>
+      </c>
+      <c r="M2" t="n">
+        <v>403573.2998450031</v>
+      </c>
+      <c r="N2" t="n">
         <v>403573.2998450032</v>
-      </c>
-      <c r="I2" t="n">
-        <v>403573.299845003</v>
-      </c>
-      <c r="J2" t="n">
-        <v>403573.299845003</v>
-      </c>
-      <c r="K2" t="n">
-        <v>403573.2998450031</v>
-      </c>
-      <c r="L2" t="n">
-        <v>403573.2998450031</v>
-      </c>
-      <c r="M2" t="n">
-        <v>403573.2998450032</v>
-      </c>
-      <c r="N2" t="n">
-        <v>403573.299845003</v>
       </c>
       <c r="O2" t="n">
         <v>403573.2998450031</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>313680.0588189857</v>
+        <v>313680.0588189854</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504085</v>
+        <v>11452.26311504207</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972772</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>81924.27863832939</v>
+        <v>81924.27863832921</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704618</v>
+        <v>3077.017355704841</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50958.6456597839</v>
+        <v>50958.64565978352</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
         <v>11770.44359558047</v>
@@ -26445,13 +26445,13 @@
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="O4" t="n">
         <v>11776.97621680582</v>
@@ -26479,10 +26479,10 @@
         <v>100142.1285138384</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1112161.710698446</v>
+        <v>-1112336.937016854</v>
       </c>
       <c r="C6" t="n">
-        <v>211622.9333825912</v>
+        <v>211622.933382591</v>
       </c>
       <c r="D6" t="n">
         <v>211622.9333825912</v>
       </c>
       <c r="E6" t="n">
-        <v>-24252.74510938922</v>
+        <v>-24298.65010495437</v>
       </c>
       <c r="F6" t="n">
-        <v>279221.5306892493</v>
+        <v>279186.7927638123</v>
       </c>
       <c r="G6" t="n">
-        <v>290673.79380429</v>
+        <v>290639.0558788549</v>
       </c>
       <c r="H6" t="n">
-        <v>290673.7938042902</v>
+        <v>290639.0558788548</v>
       </c>
       <c r="I6" t="n">
-        <v>290673.7938042901</v>
+        <v>290639.0558788545</v>
       </c>
       <c r="J6" t="n">
-        <v>73142.59140701272</v>
+        <v>73107.85348157721</v>
       </c>
       <c r="K6" t="n">
-        <v>290673.7938042901</v>
+        <v>290639.0558788542</v>
       </c>
       <c r="L6" t="n">
-        <v>290673.7938042901</v>
+        <v>290639.0558788543</v>
       </c>
       <c r="M6" t="n">
-        <v>208749.5151659609</v>
+        <v>208714.7772405252</v>
       </c>
       <c r="N6" t="n">
-        <v>287596.7764485854</v>
+        <v>287562.0385231496</v>
       </c>
       <c r="O6" t="n">
-        <v>290673.7938042901</v>
+        <v>290639.0558788545</v>
       </c>
       <c r="P6" t="n">
-        <v>290673.7938042902</v>
+        <v>290639.0558788545</v>
       </c>
     </row>
   </sheetData>
@@ -26741,13 +26741,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
         <v>1160.145290326007</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26960,19 +26960,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>268.2643481230875</v>
+        <v>268.2643481230873</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625287693</v>
+        <v>9.93445162528883</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>328.7438349237144</v>
+        <v>328.7438349237137</v>
       </c>
       <c r="F4" t="n">
-        <v>12.5629977736412</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237146</v>
+        <v>328.743834923714</v>
       </c>
       <c r="N4" t="n">
-        <v>12.5629977736412</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237144</v>
+        <v>328.7438349237137</v>
       </c>
       <c r="N4" t="n">
-        <v>12.5629977736412</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>115.2143833957737</v>
       </c>
       <c r="Y2" t="n">
-        <v>163.3558578331473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>36.90284611956271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>260.1998876031225</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>70.24105037729908</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>42.85742251821173</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>250.4953367499448</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>66.01410751272522</v>
+        <v>126.1431933360087</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,10 +28068,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>153.5338432680842</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>147.1281388806938</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-1.528519961853608e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>7.352696229645516e-12</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28612,13 +28612,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1.144826884543154e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>6.080114189899178e-12</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -28773,7 +28773,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>-1.487508428269215e-12</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29010,7 +29010,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29712,7 +29712,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -29746,10 +29746,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29913,7 +29913,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-2.034586771846195e-12</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31835,7 +31835,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J12" t="n">
         <v>275.9770021735818</v>
@@ -31847,22 +31847,22 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>197.8673674492839</v>
       </c>
       <c r="N12" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
-        <v>422.3544583169084</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
         <v>54.25758340862161</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348437</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135344</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.544175081758</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175681</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236513</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669226</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>312.3207226334959</v>
       </c>
       <c r="L15" t="n">
-        <v>592.1874941409608</v>
+        <v>638.8832749473077</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.279049007179</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437247</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418562</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742442</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869279</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532769</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>361.7519118779082</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,16 +32336,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>279.2419622547062</v>
+        <v>430.136771173632</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>300.5543663814921</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,13 +33026,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>266.6561007250664</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33190,7 +33190,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159425</v>
@@ -33263,7 +33263,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>403.3065760821439</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,13 +34126,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34211,19 +34211,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>614.7544723218309</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,10 +34463,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J12" t="n">
         <v>149.1393755069151</v>
@@ -35495,22 +35495,22 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>55.73333352726556</v>
       </c>
       <c r="N12" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
-        <v>279.758213872464</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317398</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367775</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462694</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902954</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924731</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774986</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>174.4792836591369</v>
       </c>
       <c r="L15" t="n">
-        <v>453.6331143610865</v>
+        <v>500.3288951674335</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238457</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992803</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789222</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191317</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899077</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>219.1556674334638</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>140.6875824748321</v>
+        <v>291.5823913937579</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>161.9999866016179</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295242</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,10 +38111,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
